--- a/output/freezer_03_shelf2/c3_exceldata.xlsx
+++ b/output/freezer_03_shelf2/c3_exceldata.xlsx
@@ -28,7 +28,7 @@
     <t>F3-S2-R1-D1</t>
   </si>
   <si>
-    <t>RCK95</t>
+    <t>RCK105</t>
   </si>
   <si>
     <t>F3-S2-R1-D2</t>
@@ -52,7 +52,7 @@
     <t>F3-S2-R2-D1</t>
   </si>
   <si>
-    <t>RCK96</t>
+    <t>RCK106</t>
   </si>
   <si>
     <t>F3-S2-R2-D2</t>
@@ -76,7 +76,7 @@
     <t>F3-S2-R3-D1</t>
   </si>
   <si>
-    <t>RCK97</t>
+    <t>RCK107</t>
   </si>
   <si>
     <t>F3-S2-R3-D2</t>
@@ -100,7 +100,7 @@
     <t>F3-S2-R4-D1</t>
   </si>
   <si>
-    <t>RCK98</t>
+    <t>RCK108</t>
   </si>
   <si>
     <t>F3-S2-R4-D2</t>
@@ -124,7 +124,7 @@
     <t>F3-S2-R5-D1</t>
   </si>
   <si>
-    <t>RCK99</t>
+    <t>RCK109</t>
   </si>
   <si>
     <t>F3-S2-R5-D2</t>
